--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna3-Epha7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna3-Epha7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Efna3</t>
+  </si>
+  <si>
+    <t>Epha7</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Efna3</t>
-  </si>
-  <si>
-    <t>Epha7</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1204136666666667</v>
+        <v>0.3193606666666667</v>
       </c>
       <c r="H2">
-        <v>0.361241</v>
+        <v>0.958082</v>
       </c>
       <c r="I2">
-        <v>0.5163152538690664</v>
+        <v>0.7979421849584948</v>
       </c>
       <c r="J2">
-        <v>0.5163152538690664</v>
+        <v>0.7979421849584948</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2114086666666667</v>
+        <v>0.1352566666666667</v>
       </c>
       <c r="N2">
-        <v>0.634226</v>
+        <v>0.40577</v>
       </c>
       <c r="O2">
-        <v>0.149891993325802</v>
+        <v>0.1173241749329269</v>
       </c>
       <c r="P2">
-        <v>0.149891993325802</v>
+        <v>0.1173241749329268</v>
       </c>
       <c r="Q2">
-        <v>0.02545649271844444</v>
+        <v>0.04319565923777778</v>
       </c>
       <c r="R2">
-        <v>0.229108434466</v>
+        <v>0.38876093314</v>
       </c>
       <c r="S2">
-        <v>0.07739152258695187</v>
+        <v>0.09361790849443233</v>
       </c>
       <c r="T2">
-        <v>0.07739152258695188</v>
+        <v>0.0936179084944323</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1204136666666667</v>
+        <v>0.3193606666666667</v>
       </c>
       <c r="H3">
-        <v>0.361241</v>
+        <v>0.958082</v>
       </c>
       <c r="I3">
-        <v>0.5163152538690664</v>
+        <v>0.7979421849584948</v>
       </c>
       <c r="J3">
-        <v>0.5163152538690664</v>
+        <v>0.7979421849584948</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.136667</v>
       </c>
       <c r="O3">
-        <v>0.03229966770813146</v>
+        <v>0.03951584152489912</v>
       </c>
       <c r="P3">
-        <v>0.03229966770813147</v>
+        <v>0.03951584152489912</v>
       </c>
       <c r="Q3">
-        <v>0.005485524860777777</v>
+        <v>0.01454868807711111</v>
       </c>
       <c r="R3">
-        <v>0.049369723747</v>
+        <v>0.130938192694</v>
       </c>
       <c r="S3">
-        <v>0.01667681113261038</v>
+        <v>0.03153135692685162</v>
       </c>
       <c r="T3">
-        <v>0.01667681113261038</v>
+        <v>0.03153135692685162</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1204136666666667</v>
+        <v>0.3193606666666667</v>
       </c>
       <c r="H4">
-        <v>0.361241</v>
+        <v>0.958082</v>
       </c>
       <c r="I4">
-        <v>0.5163152538690664</v>
+        <v>0.7979421849584948</v>
       </c>
       <c r="J4">
-        <v>0.5163152538690664</v>
+        <v>0.7979421849584948</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.144867</v>
+        <v>0.9440163333333332</v>
       </c>
       <c r="N4">
-        <v>3.434601</v>
+        <v>2.832049</v>
       </c>
       <c r="O4">
-        <v>0.8117282958579322</v>
+        <v>0.8188575111383802</v>
       </c>
       <c r="P4">
-        <v>0.8117282958579324</v>
+        <v>0.8188575111383801</v>
       </c>
       <c r="Q4">
-        <v>0.1378576333156667</v>
+        <v>0.3014816855575556</v>
       </c>
       <c r="R4">
-        <v>1.240718699841</v>
+        <v>2.713335170018</v>
       </c>
       <c r="S4">
-        <v>0.4191077011485929</v>
+        <v>0.6534009516074341</v>
       </c>
       <c r="T4">
-        <v>0.419107701148593</v>
+        <v>0.6534009516074341</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1204136666666667</v>
+        <v>0.3193606666666667</v>
       </c>
       <c r="H5">
-        <v>0.361241</v>
+        <v>0.958082</v>
       </c>
       <c r="I5">
-        <v>0.5163152538690664</v>
+        <v>0.7979421849584948</v>
       </c>
       <c r="J5">
-        <v>0.5163152538690664</v>
+        <v>0.7979421849584948</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.008575333333333332</v>
+        <v>0.028017</v>
       </c>
       <c r="N5">
-        <v>0.025726</v>
+        <v>0.084051</v>
       </c>
       <c r="O5">
-        <v>0.006080043108134296</v>
+        <v>0.02430247240379386</v>
       </c>
       <c r="P5">
-        <v>0.006080043108134298</v>
+        <v>0.02430247240379386</v>
       </c>
       <c r="Q5">
-        <v>0.001032587329555555</v>
+        <v>0.008947527798</v>
       </c>
       <c r="R5">
-        <v>0.009293285965999999</v>
+        <v>0.08052775018199999</v>
       </c>
       <c r="S5">
-        <v>0.003139219000911227</v>
+        <v>0.0193919679297768</v>
       </c>
       <c r="T5">
-        <v>0.003139219000911228</v>
+        <v>0.0193919679297768</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -785,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.08086966666666667</v>
+        <v>0.08086966666666666</v>
       </c>
       <c r="H6">
         <v>0.242609</v>
       </c>
       <c r="I6">
-        <v>0.3467566733175922</v>
+        <v>0.2020578150415052</v>
       </c>
       <c r="J6">
-        <v>0.3467566733175922</v>
+        <v>0.2020578150415053</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2114086666666667</v>
+        <v>0.1352566666666667</v>
       </c>
       <c r="N6">
-        <v>0.634226</v>
+        <v>0.40577</v>
       </c>
       <c r="O6">
-        <v>0.149891993325802</v>
+        <v>0.1173241749329269</v>
       </c>
       <c r="P6">
-        <v>0.149891993325802</v>
+        <v>0.1173241749329268</v>
       </c>
       <c r="Q6">
-        <v>0.01709654840377778</v>
+        <v>0.01093816154777778</v>
       </c>
       <c r="R6">
-        <v>0.153868935634</v>
+        <v>0.09844345392999999</v>
       </c>
       <c r="S6">
-        <v>0.05197604896259784</v>
+        <v>0.02370626643849454</v>
       </c>
       <c r="T6">
-        <v>0.05197604896259785</v>
+        <v>0.02370626643849454</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -847,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.08086966666666667</v>
+        <v>0.08086966666666666</v>
       </c>
       <c r="H7">
         <v>0.242609</v>
       </c>
       <c r="I7">
-        <v>0.3467566733175922</v>
+        <v>0.2020578150415052</v>
       </c>
       <c r="J7">
-        <v>0.3467566733175922</v>
+        <v>0.2020578150415053</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,22 +871,22 @@
         <v>0.136667</v>
       </c>
       <c r="O7">
-        <v>0.03229966770813146</v>
+        <v>0.03951584152489912</v>
       </c>
       <c r="P7">
-        <v>0.03229966770813147</v>
+        <v>0.03951584152489912</v>
       </c>
       <c r="Q7">
-        <v>0.003684071578111112</v>
+        <v>0.003684071578111111</v>
       </c>
       <c r="R7">
         <v>0.033156644203</v>
       </c>
       <c r="S7">
-        <v>0.01120012532373533</v>
+        <v>0.007984484598047499</v>
       </c>
       <c r="T7">
-        <v>0.01120012532373533</v>
+        <v>0.0079844845980475</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -909,46 +909,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.08086966666666667</v>
+        <v>0.08086966666666666</v>
       </c>
       <c r="H8">
         <v>0.242609</v>
       </c>
       <c r="I8">
-        <v>0.3467566733175922</v>
+        <v>0.2020578150415052</v>
       </c>
       <c r="J8">
-        <v>0.3467566733175922</v>
+        <v>0.2020578150415053</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.144867</v>
+        <v>0.9440163333333332</v>
       </c>
       <c r="N8">
-        <v>3.434601</v>
+        <v>2.832049</v>
       </c>
       <c r="O8">
-        <v>0.8117282958579322</v>
+        <v>0.8188575111383802</v>
       </c>
       <c r="P8">
-        <v>0.8117282958579324</v>
+        <v>0.8188575111383801</v>
       </c>
       <c r="Q8">
-        <v>0.09258501266766668</v>
+        <v>0.07634228620455553</v>
       </c>
       <c r="R8">
-        <v>0.8332651140090002</v>
+        <v>0.6870805758409999</v>
       </c>
       <c r="S8">
-        <v>0.2814722035094548</v>
+        <v>0.1654565595309462</v>
       </c>
       <c r="T8">
-        <v>0.2814722035094549</v>
+        <v>0.1654565595309462</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,10 +956,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -971,294 +971,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.08086966666666667</v>
+        <v>0.08086966666666666</v>
       </c>
       <c r="H9">
         <v>0.242609</v>
       </c>
       <c r="I9">
-        <v>0.3467566733175922</v>
+        <v>0.2020578150415052</v>
       </c>
       <c r="J9">
-        <v>0.3467566733175922</v>
+        <v>0.2020578150415053</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.008575333333333332</v>
+        <v>0.028017</v>
       </c>
       <c r="N9">
-        <v>0.025726</v>
+        <v>0.084051</v>
       </c>
       <c r="O9">
-        <v>0.006080043108134296</v>
+        <v>0.02430247240379386</v>
       </c>
       <c r="P9">
-        <v>0.006080043108134298</v>
+        <v>0.02430247240379386</v>
       </c>
       <c r="Q9">
-        <v>0.0006934843482222222</v>
+        <v>0.002265725451</v>
       </c>
       <c r="R9">
-        <v>0.006241359134</v>
+        <v>0.020391529059</v>
       </c>
       <c r="S9">
-        <v>0.002108295521804202</v>
+        <v>0.004910504474017066</v>
       </c>
       <c r="T9">
-        <v>0.002108295521804203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.031934</v>
-      </c>
-      <c r="H10">
-        <v>0.095802</v>
-      </c>
-      <c r="I10">
-        <v>0.1369280728133415</v>
-      </c>
-      <c r="J10">
-        <v>0.1369280728133415</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.2114086666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.634226</v>
-      </c>
-      <c r="O10">
-        <v>0.149891993325802</v>
-      </c>
-      <c r="P10">
-        <v>0.149891993325802</v>
-      </c>
-      <c r="Q10">
-        <v>0.006751124361333333</v>
-      </c>
-      <c r="R10">
-        <v>0.06076011925199999</v>
-      </c>
-      <c r="S10">
-        <v>0.02052442177625231</v>
-      </c>
-      <c r="T10">
-        <v>0.02052442177625232</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>0.031934</v>
-      </c>
-      <c r="H11">
-        <v>0.095802</v>
-      </c>
-      <c r="I11">
-        <v>0.1369280728133415</v>
-      </c>
-      <c r="J11">
-        <v>0.1369280728133415</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.04555566666666667</v>
-      </c>
-      <c r="N11">
-        <v>0.136667</v>
-      </c>
-      <c r="O11">
-        <v>0.03229966770813146</v>
-      </c>
-      <c r="P11">
-        <v>0.03229966770813147</v>
-      </c>
-      <c r="Q11">
-        <v>0.001454774659333333</v>
-      </c>
-      <c r="R11">
-        <v>0.013092971934</v>
-      </c>
-      <c r="S11">
-        <v>0.00442273125178576</v>
-      </c>
-      <c r="T11">
-        <v>0.004422731251785761</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G12">
-        <v>0.031934</v>
-      </c>
-      <c r="H12">
-        <v>0.095802</v>
-      </c>
-      <c r="I12">
-        <v>0.1369280728133415</v>
-      </c>
-      <c r="J12">
-        <v>0.1369280728133415</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M12">
-        <v>1.144867</v>
-      </c>
-      <c r="N12">
-        <v>3.434601</v>
-      </c>
-      <c r="O12">
-        <v>0.8117282958579322</v>
-      </c>
-      <c r="P12">
-        <v>0.8117282958579324</v>
-      </c>
-      <c r="Q12">
-        <v>0.036560182778</v>
-      </c>
-      <c r="R12">
-        <v>0.329041645002</v>
-      </c>
-      <c r="S12">
-        <v>0.1111483911998845</v>
-      </c>
-      <c r="T12">
-        <v>0.1111483911998846</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.031934</v>
-      </c>
-      <c r="H13">
-        <v>0.095802</v>
-      </c>
-      <c r="I13">
-        <v>0.1369280728133415</v>
-      </c>
-      <c r="J13">
-        <v>0.1369280728133415</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.008575333333333332</v>
-      </c>
-      <c r="N13">
-        <v>0.025726</v>
-      </c>
-      <c r="O13">
-        <v>0.006080043108134296</v>
-      </c>
-      <c r="P13">
-        <v>0.006080043108134298</v>
-      </c>
-      <c r="Q13">
-        <v>0.0002738446946666666</v>
-      </c>
-      <c r="R13">
-        <v>0.002464602252</v>
-      </c>
-      <c r="S13">
-        <v>0.000832528585418868</v>
-      </c>
-      <c r="T13">
-        <v>0.0008325285854188682</v>
+        <v>0.004910504474017066</v>
       </c>
     </row>
   </sheetData>
